--- a/Tables/PERMANOVA_den_spInt_1.xlsx
+++ b/Tables/PERMANOVA_den_spInt_1.xlsx
@@ -398,7 +398,7 @@
         <v>0.00193915813338366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5937</v>
+        <v>0.5874</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0585525528317946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0023</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00112014083860926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6863</v>
+        <v>0.6864</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.00599289162862538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3615</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.000235180434336012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8487</v>
+        <v>0.8598</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00183273747653705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6029</v>
+        <v>0.6089</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00267405526117779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5298</v>
+        <v>0.5362</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.000031819990433635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9489</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00980873856232314</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2455</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.000538827628677925</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7811</v>
+        <v>0.7767</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.0062379415850065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3484</v>
+        <v>0.3417</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.000179818095039322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8763</v>
+        <v>0.8712</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0138202041071864</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1654</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.0185348215679873</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0968</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.00940293444795529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2367</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.00885384269526912</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2638</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.00145770911995882</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6433</v>
+        <v>0.6478</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00103373757547465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6964</v>
+        <v>0.7012</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.000152431695102796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8789</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0926837357560556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0002</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.00000176629764436329</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9884</v>
+        <v>0.9858</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
         <v>0.00277769603853091</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3911</v>
+        <v>0.3882</v>
       </c>
     </row>
     <row r="38">
@@ -1048,7 +1048,7 @@
         <v>0.0325790567864282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>0.0026315015101872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4336</v>
+        <v>0.4517</v>
       </c>
     </row>
     <row r="40">

--- a/Tables/PERMANOVA_den_spInt_1.xlsx
+++ b/Tables/PERMANOVA_den_spInt_1.xlsx
@@ -398,7 +398,7 @@
         <v>0.00193915813338366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5874</v>
+        <v>0.5914</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0585525528317946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0018</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00112014083860926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6864</v>
+        <v>0.6889</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.00599289162862538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.348</v>
+        <v>0.3631</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.000235180434336012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8598</v>
+        <v>0.8555</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00183273747653705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6089</v>
+        <v>0.5987</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00267405526117779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5362</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.000031819990433635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.947</v>
+        <v>0.9479</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00980873856232314</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2406</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.000538827628677925</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7767</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.0062379415850065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3417</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.000179818095039322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8712</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0138202041071864</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1537</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.0185348215679873</v>
       </c>
       <c r="F23" t="n">
-        <v>0.096</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.00940293444795529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2412</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.00885384269526912</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2568</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.00145770911995882</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6478</v>
+        <v>0.6425</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00103373757547465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7012</v>
+        <v>0.6953</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.000152431695102796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.876</v>
+        <v>0.8776</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0926837357560556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.00000176629764436329</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9858</v>
+        <v>0.9853</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
         <v>0.00277769603853091</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3882</v>
+        <v>0.3763</v>
       </c>
     </row>
     <row r="38">
@@ -1048,7 +1048,7 @@
         <v>0.0325790567864282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.043</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>0.0026315015101872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4517</v>
+        <v>0.4416</v>
       </c>
     </row>
     <row r="40">

--- a/Tables/PERMANOVA_den_spInt_1.xlsx
+++ b/Tables/PERMANOVA_den_spInt_1.xlsx
@@ -398,7 +398,7 @@
         <v>0.00193915813338366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5914</v>
+        <v>0.5987</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.0585525528317946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00112014083860926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6889</v>
+        <v>0.6901</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>0.00599289162862538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3631</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>0.000235180434336012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8555</v>
+        <v>0.8515</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>0.00183273747653705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5987</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.00267405526117779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.538</v>
+        <v>0.5402</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         <v>0.000031819990433635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9479</v>
+        <v>0.9466</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +618,7 @@
         <v>0.00980873856232314</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2317</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>0.000538827628677925</v>
       </c>
       <c r="F17" t="n">
-        <v>0.783</v>
+        <v>0.7811</v>
       </c>
     </row>
     <row r="18">
@@ -688,7 +688,7 @@
         <v>0.0062379415850065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3419</v>
+        <v>0.3385</v>
       </c>
     </row>
     <row r="19">
@@ -708,7 +708,7 @@
         <v>0.000179818095039322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.873</v>
+        <v>0.8721</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>0.0138202041071864</v>
       </c>
       <c r="F22" t="n">
-        <v>0.154</v>
+        <v>0.1494</v>
       </c>
     </row>
     <row r="23">
@@ -778,7 +778,7 @@
         <v>0.0185348215679873</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0969</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="24">
@@ -798,7 +798,7 @@
         <v>0.00940293444795529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2408</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
         <v>0.00885384269526912</v>
       </c>
       <c r="F27" t="n">
-        <v>0.252</v>
+        <v>0.2536</v>
       </c>
     </row>
     <row r="28">
@@ -868,7 +868,7 @@
         <v>0.00145770911995882</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6425</v>
+        <v>0.6467</v>
       </c>
     </row>
     <row r="29">
@@ -888,7 +888,7 @@
         <v>0.00103373757547465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6953</v>
+        <v>0.7016</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>0.000152431695102796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8776</v>
+        <v>0.8795</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v>0.0926837357560556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
         <v>0.00000176629764436329</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9853</v>
+        <v>0.9859</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
         <v>0.00277769603853091</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3763</v>
+        <v>0.3904</v>
       </c>
     </row>
     <row r="38">
@@ -1048,7 +1048,7 @@
         <v>0.0325790567864282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0411</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>0.0026315015101872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4416</v>
+        <v>0.4533</v>
       </c>
     </row>
     <row r="40">
